--- a/data/income_statement/2digits/size/23_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/23_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>23-Manufacture of other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>23-Manufacture of other non-metallic mineral products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>592011.85801</v>
+        <v>659603.99981</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>564335.7186799999</v>
+        <v>657219.94258</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>640450.67557</v>
+        <v>732837.4689</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>562051.2173199999</v>
+        <v>663593.14076</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>570713.54701</v>
+        <v>701187.21823</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>574773.8275899999</v>
+        <v>736083.1180999998</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>604301.9829500001</v>
+        <v>777540.7768799999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>710882.9984299999</v>
+        <v>938257.0615100001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>820773.8315799999</v>
+        <v>1084050.05136</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1700511.41074</v>
+        <v>2041860.12061</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1698913.94854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2382985.19542</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2207814.29</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>524732.08504</v>
+        <v>581165.06096</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>503102.37434</v>
+        <v>583040.59716</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>579452.54522</v>
+        <v>661874.0525399999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>510056.46957</v>
+        <v>601103.87644</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>521602.51998</v>
+        <v>635521.3244800001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>512795.45841</v>
+        <v>655274.64657</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>544929.4625599999</v>
+        <v>700997.98095</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>664101.4833499999</v>
+        <v>865362.9056700001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>763135.9264700001</v>
+        <v>1000433.14791</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1519209.49859</v>
+        <v>1815418.32774</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1508324.63138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2122026.32945</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1936084.995</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>58903.19167</v>
+        <v>66089.10304999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>54065.55482</v>
+        <v>61822.94146</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>53235.05144</v>
+        <v>58476.61709</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>45020.67224</v>
+        <v>49692.16373000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>42159.34221</v>
+        <v>50023.65248</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>54336.93169</v>
+        <v>65063.17506</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>51078.3455</v>
+        <v>61708.01085</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>36964.12851</v>
+        <v>49575.09748</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>42611.67129999999</v>
+        <v>52723.9398</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>150005.54099</v>
+        <v>173235.40291</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>154164.45503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>195702.85022</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>216572.282</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>8376.581300000002</v>
+        <v>12349.8358</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7167.789519999999</v>
+        <v>12356.40396</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7763.07891</v>
+        <v>12486.79927</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6974.07551</v>
+        <v>12797.10059</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6951.684819999999</v>
+        <v>15642.24127</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7641.43749</v>
+        <v>15745.29647</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8294.17489</v>
+        <v>14834.78508</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9817.386570000001</v>
+        <v>23319.05836</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>15026.23381</v>
+        <v>30892.96365</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>31296.37116</v>
+        <v>53206.38995999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>36424.86212999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>65256.01575</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>55157.013</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2868.52619</v>
+        <v>3483.404350000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3475.51493</v>
+        <v>4347.90367</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3582.56978</v>
+        <v>3904.59699</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3617.43054</v>
+        <v>4345.46953</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3862.485550000001</v>
+        <v>5251.89975</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2310.17804</v>
+        <v>3257.35787</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2045.78332</v>
+        <v>2932.30795</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2762.45753</v>
+        <v>3601.54842</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1956.61971</v>
+        <v>4890.20785</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6228.709749999999</v>
+        <v>8151.746090000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6922.189679999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>80611.56256000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>20698.539</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2171.73299</v>
+        <v>2447.85091</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2089.06422</v>
+        <v>2937.925400000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2794.67516</v>
+        <v>3043.55962</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2933.16068</v>
+        <v>3634.80864</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3144.05579</v>
+        <v>4400.246190000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1482.6177</v>
+        <v>2222.90966</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1752.35941</v>
+        <v>2507.55697</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2161.83181</v>
+        <v>2991.61888</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1232.49527</v>
+        <v>4091.55791</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5034.41983</v>
+        <v>6362.15066</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6286.08148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>79300.93366000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>17824.444</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>631.8764299999999</v>
+        <v>780.10089</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1177.88889</v>
+        <v>1189.33812</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>672.5253399999999</v>
+        <v>743.50256</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>372.81593</v>
+        <v>396.38362</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>390.87245</v>
+        <v>511.0461900000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>245.00145</v>
+        <v>398.76845</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>213.36937</v>
+        <v>244.94952</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>459.81639</v>
+        <v>451.44001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>593.7639799999999</v>
+        <v>646.6857</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>317.32563</v>
+        <v>375.97984</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>243.51716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>600.59262</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1886.197</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>64.91677</v>
+        <v>255.45255</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>208.56182</v>
+        <v>220.64015</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>115.36928</v>
+        <v>117.53481</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>311.45393</v>
+        <v>314.27727</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>327.55731</v>
+        <v>340.60737</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>582.55889</v>
+        <v>635.67976</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>80.05454</v>
+        <v>179.80146</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>140.80933</v>
+        <v>158.48953</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>130.36046</v>
+        <v>151.96424</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>876.9642899999999</v>
+        <v>1413.61559</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>392.59104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>710.03628</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>987.898</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>589143.33182</v>
+        <v>656120.59546</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>560860.20375</v>
+        <v>652872.0389100001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>636868.1057900001</v>
+        <v>728932.8719100001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>558433.78678</v>
+        <v>659247.67123</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>566851.06146</v>
+        <v>695935.31848</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>572463.64955</v>
+        <v>732825.76023</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>602256.19963</v>
+        <v>774608.4689300001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>708120.5409</v>
+        <v>934655.51309</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>818817.2118700001</v>
+        <v>1079159.84351</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1694282.70099</v>
+        <v>2033708.37452</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1691991.75886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2302373.63286</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2187115.751</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>480951.60013</v>
+        <v>531830.89006</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>450437.5341800001</v>
+        <v>526807.5995700001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>522782.39356</v>
+        <v>594723.8806</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>449528.61411</v>
+        <v>526809.47684</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>460486.14974</v>
+        <v>561775.74752</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>469711.22942</v>
+        <v>596222.4614400001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>501590.58303</v>
+        <v>638631.3322899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>611534.67881</v>
+        <v>790512.9042700001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>716774.0708499999</v>
+        <v>927933.83109</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1416276.0628</v>
+        <v>1690633.59519</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1399879.99576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1899982.515</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1801126.82</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>186851.84876</v>
+        <v>214288.39345</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>210229.78245</v>
+        <v>253435.81852</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>215666.87248</v>
+        <v>254841.61585</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>194872.18875</v>
+        <v>244331.39442</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>209401.5264</v>
+        <v>270935.42246</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>205607.39812</v>
+        <v>279354.87309</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>209283.12685</v>
+        <v>287830.04312</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>234646.06783</v>
+        <v>334322.15384</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>216177.89512</v>
+        <v>337059.54218</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>678122.9262400001</v>
+        <v>815013.12317</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>705127.0727299999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>975300.28097</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>898250.4570000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>233247.6066</v>
+        <v>252501.4289</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>199275.55858</v>
+        <v>224219.62584</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>237944.582</v>
+        <v>262389.12659</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>201977.69685</v>
+        <v>222442.3424500001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>213968.81845</v>
+        <v>241441.33415</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>223181.61682</v>
+        <v>258033.82799</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>245297.44289</v>
+        <v>286792.28185</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>314733.43033</v>
+        <v>367231.87812</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>438407.2260800001</v>
+        <v>497107.75572</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>606508.28853</v>
+        <v>699898.94744</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>543250.07604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>713693.52734</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>736948.683</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>59285.21376000001</v>
+        <v>63190.57087</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>40034.34507</v>
+        <v>47704.33598</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>66788.00019000001</v>
+        <v>75046.75226000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>50681.43837</v>
+        <v>56928.24169</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>35220.45281</v>
+        <v>45855.69676</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36637.24917</v>
+        <v>52970.12904</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>42805.53892</v>
+        <v>58011.08328</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>58568.26206</v>
+        <v>80508.36720000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>55674.2219</v>
+        <v>84318.85699</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>117986.52009</v>
+        <v>153131.39842</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>130350.22048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>172608.33594</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>141485.32</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1566.93101</v>
+        <v>1850.49684</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>897.8480800000001</v>
+        <v>1447.81923</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2382.93889</v>
+        <v>2446.3859</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1997.29014</v>
+        <v>3107.49828</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1895.35208</v>
+        <v>3543.29415</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4284.96531</v>
+        <v>5863.63132</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4204.47437</v>
+        <v>5997.92404</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3586.91859</v>
+        <v>8450.50511</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6514.72775</v>
+        <v>9447.676200000002</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>13658.32794</v>
+        <v>22590.12616</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>21152.62651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38380.37075</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>24442.36</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>108191.73169</v>
+        <v>124289.7054</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>110422.66957</v>
+        <v>126064.43934</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>114085.71223</v>
+        <v>134208.99131</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>108905.17267</v>
+        <v>132438.19439</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>106364.91172</v>
+        <v>134159.57096</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>102752.42013</v>
+        <v>136603.29879</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>100665.6166</v>
+        <v>135977.13664</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>96585.86209000001</v>
+        <v>144142.60882</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>102043.14102</v>
+        <v>151226.01242</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>278006.63819</v>
+        <v>343074.77933</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>292111.7631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>402391.1178599999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>385988.931</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>96958.75077000001</v>
+        <v>121042.69063</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>100222.77469</v>
+        <v>128102.48465</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>105011.52996</v>
+        <v>138105.81816</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>103572.29312</v>
+        <v>137651.79094</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>105034.4041</v>
+        <v>145962.89211</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>105069.22834</v>
+        <v>161892.80539</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>102563.86561</v>
+        <v>157233.6548</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>104864.28418</v>
+        <v>177247.92191</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>109706.87484</v>
+        <v>185257.64627</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>254543.23719</v>
+        <v>337569.41213</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>282791.2635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>427472.8282</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>467828.463</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>387.47211</v>
+        <v>609.50315</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>297.62564</v>
+        <v>343.53514</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>927.29725</v>
+        <v>1024.09251</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>156.01406</v>
+        <v>592.2387199999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>282.1174300000001</v>
+        <v>397.76649</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>917.0801100000001</v>
+        <v>978.3736200000001</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>427.8695300000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>480.26368</v>
+        <v>615.8034799999998</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>533.3115600000001</v>
+        <v>553.75671</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>378.15243</v>
+        <v>433.8613999999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>496.01149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>706.1546800000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>117.176</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>18002.85856</v>
+        <v>21241.31456</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>19220.26931</v>
+        <v>21883.93194</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>21222.61949</v>
+        <v>23667.96391</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>19549.72988</v>
+        <v>22972.27955</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>20042.09154</v>
+        <v>25987.48692</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17653.6372</v>
+        <v>26366.12238</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>16390.92847</v>
+        <v>22433.15829</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>17881.43499</v>
+        <v>26816.07666</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>17810.16037</v>
+        <v>25925.18859000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>52650.89561</v>
+        <v>61953.71977999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>51567.28962999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>73702.51431</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>69480.81200000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>78568.42009999999</v>
+        <v>99191.87291999998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>80704.87974</v>
+        <v>105875.01757</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>82861.61322</v>
+        <v>113413.76174</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>83866.54918</v>
+        <v>114087.27267</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>84710.19512999999</v>
+        <v>119577.6387</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>86498.51102999999</v>
+        <v>134548.30939</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>85745.06761</v>
+        <v>134372.62698</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>86502.58551</v>
+        <v>149816.04177</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>91363.40290999999</v>
+        <v>158778.70097</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>201514.18915</v>
+        <v>275181.83095</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>230727.96238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>353064.15921</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>398230.475</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>11232.98092</v>
+        <v>3247.01477</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10199.89488</v>
+        <v>-2038.045310000002</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>9074.182269999999</v>
+        <v>-3896.82685</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5332.87955</v>
+        <v>-5213.59655</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1330.50762</v>
+        <v>-11803.32115</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-2316.80821</v>
+        <v>-25289.5066</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1898.24901</v>
+        <v>-21256.51816</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-8278.422090000002</v>
+        <v>-33105.31309</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-7663.73382</v>
+        <v>-34031.63385</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>23463.401</v>
+        <v>5505.367200000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9320.499599999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-25081.71034</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-81839.53200000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5404.58133</v>
+        <v>57498.30106</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4851.09434</v>
+        <v>51402.88934</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5866.679939999999</v>
+        <v>92044.98359</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5415.699259999999</v>
+        <v>27350.41819</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4576.11735</v>
+        <v>33375.65771</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4474.517400000001</v>
+        <v>43315.68394</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4223.81968</v>
+        <v>296141.4149</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4835.96308</v>
+        <v>595228.4073499999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4850.1525</v>
+        <v>40787.92991</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22829.50136</v>
+        <v>105196.48149</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>17354.48226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>56774.90285</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>206278.78</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>337.15478</v>
+        <v>18880.55442</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.5061</v>
+        <v>20136.5838</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>21216.80767</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>26.056</v>
+        <v>37.92585</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>31.792</v>
+        <v>12841.37576</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>15002.22345</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>29022.2446</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>6674.65889</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2.22864</v>
+        <v>4161.57629</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>1511.68334</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>122.41905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>531.49987</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2.037</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,22 +1830,22 @@
         <v>10.3275</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7.9425</v>
+        <v>4035.60858</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>0.07323</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0.01357</v>
+        <v>226906.64632</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>410607.76252</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>56.65394999999999</v>
@@ -1838,208 +1854,238 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>17.20802</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>524.82939</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>21557.174</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>505.24759</v>
+        <v>3477.737230000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>524.2212000000001</v>
+        <v>2385.75125</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>459.4637099999999</v>
+        <v>6041.31292</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>516.43007</v>
+        <v>4152.70705</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>458.93982</v>
+        <v>4022.33935</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>404.16887</v>
+        <v>3938.85634</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>353.07774</v>
+        <v>5566.29161</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>501.14651</v>
+        <v>6509.703330000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>502.51007</v>
+        <v>8378.310390000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1683.45445</v>
+        <v>11824.11203</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4292.908429999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9690.855240000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>28458.804</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>114.21465</v>
+        <v>4391.109540000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>255.17345</v>
+        <v>778.98787</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>41.48027</v>
+        <v>43.25804</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>84.29422</v>
+        <v>90.44422</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>113.60475</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>71.13087</v>
+        <v>221.22992</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>4.2512</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>119.06234</v>
+        <v>128.97232</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1.10958</v>
+        <v>14.59867</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1.60467</v>
+        <v>1.60938</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>191.95593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>192.30026</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>585.157</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>41.56763</v>
+        <v>159.75291</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>98.58515</v>
+        <v>301.40023</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>181.30443</v>
+        <v>481.62664</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>93.34005000000001</v>
+        <v>146.25581</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11.65245</v>
+        <v>463.71307</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>25.29057</v>
+        <v>303.43442</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4.262890000000001</v>
+        <v>207.2893</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4.99064</v>
+        <v>395.15578</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>45</v>
+        <v>472.40022</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>540.20115</v>
+        <v>1401.94624</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>458.36487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4619.62278</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4070.961</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>20.37535</v>
+        <v>227.24944</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42.67655000000001</v>
+        <v>532.99802</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>33.74794</v>
+        <v>120.4861</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>95.5836</v>
+        <v>174.11424</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>111.30339</v>
+        <v>203.86998</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>27.58115</v>
+        <v>77.77703</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4.566469999999999</v>
+        <v>228.18689</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>14.7982</v>
+        <v>43.5624</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>47.23657</v>
+        <v>57.09557</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>200.776</v>
+        <v>261.54922</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>220.67609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>382.81206</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>287.745</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2194.43236</v>
+        <v>22113.37595</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1564.89798</v>
+        <v>16101.46342</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2100.2359</v>
+        <v>46922.01231000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>844.99577</v>
+        <v>12615.66327</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1523.00791</v>
+        <v>7010.03287</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1104.01572</v>
+        <v>10824.87107</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1645.80966</v>
+        <v>14946.7661</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1522.72511</v>
+        <v>157263.73469</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1510.01729</v>
+        <v>12213.93187</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>15188.20316</v>
+        <v>56491.34065999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5571.46735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>17065.96037</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>115867.594</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2054,7 +2100,7 @@
         <v>19.61865</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0.008829999999999999</v>
@@ -2074,29 +2120,34 @@
       <c r="M33" s="48" t="n">
         <v>6.71342</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>96.48011</v>
+        <v>96.58405999999999</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>13.62841</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>7.25246</v>
+        <v>135.67032</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>36.87167</v>
+        <v>96.56653999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>55.22317</v>
+        <v>139.13143</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>29.91677</v>
+        <v>35.73696</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>16.12611</v>
@@ -2105,256 +2156,291 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1.59126</v>
+        <v>5.147699999999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>17.8016</v>
+        <v>26.7016</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>77.03100000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2095.10886</v>
+        <v>8151.93751</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2341.078</v>
+        <v>11141.74884</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3035.25273</v>
+        <v>13048.20101</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3698.50923</v>
+        <v>10017.04933</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2270.59386</v>
+        <v>8401.59</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2812.40462</v>
+        <v>12911.54592</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2193.15716</v>
+        <v>19241.05789</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2672.25978</v>
+        <v>13603.87692</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2683.80514</v>
+        <v>15428.21525</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5181.95475</v>
+        <v>33662.03344</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6472.7691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>23760.30946</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>35326.397</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5022.35351</v>
+        <v>31411.73697</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3188.12943</v>
+        <v>16300.36273</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10884.26641</v>
+        <v>46247.48393</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3984.0013</v>
+        <v>14761.63012</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3746.83141</v>
+        <v>39032.1565</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2131.23306</v>
+        <v>21424.01125</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2194.53993</v>
+        <v>19270.18627</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2529.13987</v>
+        <v>191220.45314</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3306.538579999999</v>
+        <v>10592.52693</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>18551.40359000001</v>
+        <v>41750.66414</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>59982.62492999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>100641.35019</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>90958.973</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>381.62504</v>
+        <v>1023.05702</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>341.8589700000001</v>
+        <v>377.6120700000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>406.97216</v>
+        <v>422.07022</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>167.08901</v>
+        <v>207.59352</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>72.54048999999999</v>
+        <v>168.7301</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>51.9363</v>
+        <v>236.80037</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>90.41347999999999</v>
+        <v>111.25547</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>65.77213999999999</v>
+        <v>88.34508000000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>64.54170000000001</v>
+        <v>94.72571999999998</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>140.9811</v>
+        <v>195.4921</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>109.7648</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>757.34701</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>342.548</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>377.1882999999999</v>
+        <v>483.1523100000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>73.48115</v>
+        <v>132.62704</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1362.85059</v>
+        <v>1363.84887</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>285.0706</v>
+        <v>939.0309599999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>911.51126</v>
+        <v>1025.33986</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>268.63192</v>
+        <v>670.75902</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12.80603</v>
+        <v>398.15647</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>417.99613</v>
+        <v>2337.37233</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>302.37153</v>
+        <v>873.8842</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>332.75703</v>
+        <v>1571.41736</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10383.69283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>17455.02241</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2585.248</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>7.635719999999999</v>
+        <v>532.88839</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>2.69458</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5.504700000000001</v>
+        <v>19.03322</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6.30321</v>
+        <v>17.39901</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>137.0485</v>
+        <v>161.97348</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.19371</v>
+        <v>2537.71892</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>3.66146</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>13.72881</v>
+        <v>22.52999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>28.91313</v>
+        <v>55.09173000000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>51.74169</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>40887.69004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>40889.69004</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>50.778</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2601.6181</v>
+        <v>26671.75999999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1490.76424</v>
+        <v>10518.55762</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1819.52849</v>
+        <v>33447.23557</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1015.6307</v>
+        <v>8758.579029999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1860.39015</v>
+        <v>34968.0844</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>846.5943299999998</v>
+        <v>15899.28831</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1342.99266</v>
+        <v>17125.58346</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>783.28908</v>
+        <v>186082.22709</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1714.38374</v>
+        <v>7117.22846</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15349.09755</v>
+        <v>33580.37106</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4916.5455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>15800.12512</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>77963.682</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>19.70436</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0.15252</v>
@@ -2363,7 +2449,7 @@
         <v>52.68523</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>9.55946</v>
+        <v>15.02305</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0.48447</v>
@@ -2378,7 +2464,7 @@
         <v>0.04186</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>0.25878</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>75.7227</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>7.275</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>43.245</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.61039</v>
@@ -2402,19 +2493,19 @@
         <v>14.51748</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>24.55332</v>
+        <v>41.96478</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2e-05</v>
+        <v>31.87197</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.08825</v>
+        <v>14.91093</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>36.35438</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1653.67596</v>
+        <v>2680.5645</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1255.3401</v>
+        <v>5242.18645</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7222.207760000001</v>
+        <v>10928.09334</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2475.795</v>
+        <v>4782.039769999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>764.85652</v>
+        <v>2675.67222</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>963.7885500000001</v>
+        <v>2064.5337</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>711.02106</v>
+        <v>1594.22271</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1248.31185</v>
+        <v>2689.93675</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1196.32848</v>
+        <v>2451.33804</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2600.25351</v>
+        <v>6275.06922</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3677.65676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25731.89061</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9972.896000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5978.63468</v>
+        <v>22430.63897</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4145.505200000001</v>
+        <v>18221.61195</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4577.54286</v>
+        <v>160858.68023</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4838.34195</v>
+        <v>14159.65742</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3965.48631</v>
+        <v>17387.95281</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4353.67467</v>
+        <v>12898.93117</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4768.00298</v>
+        <v>13389.20191</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4273.45883</v>
+        <v>31748.80166</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4658.90968</v>
+        <v>27823.04312</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17064.1319</v>
+        <v>64100.96059</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30031.9299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>76853.40062</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>70870.242</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5590.51432</v>
+        <v>21925.58944</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4005.4596</v>
+        <v>17530.34657</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4408.69766</v>
+        <v>14362.22269</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4639.62239</v>
+        <v>8668.394299999998</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3866.82917</v>
+        <v>11587.69103</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4206.87127</v>
+        <v>9836.57718</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4609.373280000001</v>
+        <v>12950.05944</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4131.14112</v>
+        <v>15451.24652</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4276.72402</v>
+        <v>20093.26655</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>16379.86792</v>
+        <v>50636.56636</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>29507.92803</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>71686.97653</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>63029.101</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>388.1203600000001</v>
+        <v>505.04953</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>140.0456</v>
+        <v>691.2653800000002</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>168.8452</v>
+        <v>146496.45754</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>198.71956</v>
+        <v>5491.26312</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>98.65713999999998</v>
+        <v>5800.26178</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>146.8034</v>
+        <v>3062.35399</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>158.6297</v>
+        <v>439.1424699999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>142.31771</v>
+        <v>16297.55514</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>382.18566</v>
+        <v>7729.776569999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>684.2639799999999</v>
+        <v>13464.39423</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>524.0018699999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5166.42409</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7841.141</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5636.57406</v>
+        <v>6902.939889999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7717.35459</v>
+        <v>14842.86935</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-520.947060000001</v>
+        <v>-118958.00742</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1926.235560000001</v>
+        <v>-6784.465899999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1805.69275</v>
+        <v>-34847.77275</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-4327.19854</v>
+        <v>-16296.76508</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4636.97224</v>
+        <v>242225.50856</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-10245.05771</v>
+        <v>339153.83946</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-10779.02958</v>
+        <v>-31659.27399</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10677.36687</v>
+        <v>4850.223960000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-63339.57297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-145801.5583</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-37389.967</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7322.493719999999</v>
+        <v>15899.30502</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6071.43579</v>
+        <v>15255.46071</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4945.05422</v>
+        <v>25208.28808</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5266.44384</v>
+        <v>12844.80098</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5045.89209</v>
+        <v>19357.63538</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3864.72838</v>
+        <v>31891.35668</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5454.84621</v>
+        <v>51252.64675</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5291.862690000001</v>
+        <v>19471.63533</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5752.40716</v>
+        <v>31745.63938</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>14716.49703</v>
+        <v>40121.74651</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>25526.62842</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>88276.84031999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>183539.428</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>21.73618</v>
+        <v>111.09352</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>32.58173</v>
+        <v>97.57191</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>88.99510000000001</v>
+        <v>142.95431</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>209.22713</v>
+        <v>418.2889300000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>192.03586</v>
+        <v>273.23996</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>9.005759999999999</v>
+        <v>47.28274</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>61.97263</v>
+        <v>190.11158</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11.65352</v>
+        <v>26.94452</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>13.67556</v>
+        <v>25.1626</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>30.57735</v>
+        <v>32.40478</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>91.20415999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>933.3552900000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>395.424</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7300.757540000001</v>
+        <v>15788.2115</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6038.85406</v>
+        <v>15157.8888</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4856.059120000001</v>
+        <v>25065.33377</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5057.21671</v>
+        <v>12426.51205</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4853.85623</v>
+        <v>19084.39542</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3855.72262</v>
+        <v>31844.07394</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5392.873579999999</v>
+        <v>51062.53517</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5280.20917</v>
+        <v>19444.69081</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5738.731600000001</v>
+        <v>31720.47678</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>14685.91968</v>
+        <v>40089.34173000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>25435.42426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>87343.48503</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>183144.004</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7181.16497</v>
+        <v>47022.33251000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12585.57911</v>
+        <v>28194.51565</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>30507.81332</v>
+        <v>65340.63945</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6127.258980000001</v>
+        <v>18277.61212</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6745.37843</v>
+        <v>17630.6124</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>14159.42828</v>
+        <v>53607.90714</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16366.34799</v>
+        <v>22216.129</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>29776.24559</v>
+        <v>47751.80891</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8626.789530000002</v>
+        <v>22532.90709</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>41150.76013</v>
+        <v>78590.81451000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>30929.05326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>87919.79755</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>92171.351</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>294.23827</v>
+        <v>3352.37901</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>382.26627</v>
+        <v>3775.36877</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>593.26836</v>
+        <v>4624.82849</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>437.1978</v>
+        <v>1581.79207</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>530.31013</v>
+        <v>2460.24372</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>254.83223</v>
+        <v>1593.91219</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>296.43533</v>
+        <v>2047.37647</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>339.5873</v>
+        <v>1846.31237</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>195.88522</v>
+        <v>1354.59659</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>834.3539700000001</v>
+        <v>3775.3902</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1936.91596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6113.981739999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>21652.955</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>611.42009</v>
+        <v>731.0761100000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>720.6278299999999</v>
+        <v>1183.55179</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>305.30578</v>
+        <v>2149.74374</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>232.9737</v>
+        <v>985.11451</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>207.74428</v>
+        <v>2019.7479</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>292.10639</v>
+        <v>473.14904</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>305.01368</v>
+        <v>382.56847</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>231.6001</v>
+        <v>367.0057</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>327.8423099999999</v>
+        <v>473.06425</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>338.3316</v>
+        <v>828.7474200000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>343.19713</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14953.2214</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3578.224</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6275.506609999999</v>
+        <v>42938.87739</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11482.68501</v>
+        <v>23235.59509</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>29609.23918</v>
+        <v>58566.06722</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5457.08748</v>
+        <v>15710.70554</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6007.324019999999</v>
+        <v>13150.62078</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13612.48966</v>
+        <v>51540.84591</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15764.89898</v>
+        <v>19786.18406</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>29205.05819</v>
+        <v>45538.49084000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8103.061999999999</v>
+        <v>20705.24625</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>39978.07456</v>
+        <v>73986.67689</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>28648.94017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>66852.59440999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>66940.17200000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5777.90281</v>
+        <v>-24220.08760000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1203.211269999999</v>
+        <v>1903.814409999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-26083.70616</v>
+        <v>-159090.35879</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1065.42042</v>
+        <v>-12217.27704</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3505.17909</v>
+        <v>-33120.74977</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-14621.89844</v>
+        <v>-38013.31554</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-15548.47402</v>
+        <v>271262.02631</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-34729.44061</v>
+        <v>310873.66588</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-13653.41195</v>
+        <v>-22446.5417</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-15756.89623</v>
+        <v>-33618.84403999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-68741.99780999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-145444.51553</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>53978.11</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4041.5242</v>
+        <v>5513.19235</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4114.33442</v>
+        <v>6342.25945</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4138.03958</v>
+        <v>6457.16478</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4095.63268</v>
+        <v>6011.42418</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3758.75622</v>
+        <v>5611.34188</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3770.39239</v>
+        <v>7059.561610000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4014.50078</v>
+        <v>8719.39595</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3738.08418</v>
+        <v>7445.16607</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4169.1913</v>
+        <v>8269.644920000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>12811.69244</v>
+        <v>22549.15479</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11751.51062</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23446.21299</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>32763.636</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1736.37861</v>
+        <v>-29733.27995</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2911.123149999999</v>
+        <v>-4438.445039999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-30221.74574</v>
+        <v>-165547.52357</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3030.21226</v>
+        <v>-18228.70122</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7263.935310000001</v>
+        <v>-38732.09165</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-18392.29083</v>
+        <v>-45072.87715</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-19562.9748</v>
+        <v>262542.63036</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-38467.52479</v>
+        <v>303428.49981</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-17822.60325</v>
+        <v>-30716.18662</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-28568.58867</v>
+        <v>-56167.99883</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-80493.50842999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-168890.72852</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>21214.474</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3225</v>
+        <v>3508</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3143</v>
+        <v>3498</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2994</v>
+        <v>3377</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2792</v>
+        <v>3198</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2706</v>
+        <v>3192</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2533</v>
+        <v>3099</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2388</v>
+        <v>3048</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2373</v>
+        <v>3156</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2382</v>
+        <v>3260</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2770</v>
+        <v>3813</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4139</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>